--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>484020.6716759829</v>
+        <v>481499.1670854636</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673428</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>261.2457331324778</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>91.4783857353269</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>168.5598143884978</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>82.42281819632548</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>207.0222409330367</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -880,7 +880,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +911,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>284.7674442070003</v>
       </c>
       <c r="X5" t="n">
-        <v>213.7926455799203</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,25 +1054,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>143.4687746476337</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>63.2068980063497</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>99.59933623926837</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>223.6795707619982</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1306,7 +1306,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>41.95995423521121</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>118.7766241650357</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1424,7 +1424,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>135.0353110735031</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>248.266879649288</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>115.7063133373722</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272892</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>121.6256473075345</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>35.23631477519695</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>53.76947475493767</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>28.75188085812005</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>37.41782514684017</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>81.07546534818415</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>167.2778182737679</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2722,7 +2722,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>71.56327578339665</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>193.9962538432431</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>74.95497330698053</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>3.475606507923247</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>1.207068174442234</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>211.2284830686706</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>33.38664646283066</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3679,7 +3679,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>65.38324202937314</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>28.23631843387898</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3718,7 +3718,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3895,19 +3895,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>262.35338800267</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>38.19083539427159</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4135,19 +4135,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>95.12712756824166</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>132.6036163643573</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>519.5572140912818</v>
+        <v>1852.268360886148</v>
       </c>
       <c r="C2" t="n">
-        <v>150.5946971508701</v>
+        <v>1588.383781964454</v>
       </c>
       <c r="D2" t="n">
-        <v>150.5946971508701</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="E2" t="n">
-        <v>150.5946971508701</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>143.6491964016666</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4367,13 +4367,13 @@
         <v>2022.530799662409</v>
       </c>
       <c r="W2" t="n">
-        <v>1669.762144392295</v>
+        <v>1852.268360886148</v>
       </c>
       <c r="X2" t="n">
-        <v>1296.296386131215</v>
+        <v>1852.268360886148</v>
       </c>
       <c r="Y2" t="n">
-        <v>906.1570541554036</v>
+        <v>1852.268360886148</v>
       </c>
     </row>
     <row r="3">
@@ -4398,31 +4398,31 @@
         <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1565.661695681274</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4462,49 +4462,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>580.2476435302233</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="C4" t="n">
-        <v>580.2476435302233</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="D4" t="n">
-        <v>430.1310041178875</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="E4" t="n">
-        <v>346.8756322024072</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4516,22 +4516,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269233</v>
+        <v>1427.332745394662</v>
       </c>
       <c r="U4" t="n">
-        <v>1124.349301773071</v>
+        <v>1138.2144078985</v>
       </c>
       <c r="V4" t="n">
-        <v>869.6648135671838</v>
+        <v>883.5299196926128</v>
       </c>
       <c r="W4" t="n">
-        <v>580.2476435302233</v>
+        <v>594.1127496556522</v>
       </c>
       <c r="X4" t="n">
-        <v>580.2476435302233</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="Y4" t="n">
-        <v>580.2476435302233</v>
+        <v>366.1231987576349</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1236.203140240072</v>
+        <v>1567.784838233996</v>
       </c>
       <c r="C5" t="n">
-        <v>1236.203140240072</v>
+        <v>1567.784838233996</v>
       </c>
       <c r="D5" t="n">
-        <v>877.9374416333219</v>
+        <v>1567.784838233996</v>
       </c>
       <c r="E5" t="n">
-        <v>877.9374416333219</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V5" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W5" t="n">
-        <v>2228.894479532451</v>
+        <v>1941.250596495076</v>
       </c>
       <c r="X5" t="n">
-        <v>2012.942312280006</v>
+        <v>1567.784838233996</v>
       </c>
       <c r="Y5" t="n">
-        <v>1622.802980304194</v>
+        <v>1567.784838233996</v>
       </c>
     </row>
     <row r="6">
@@ -4641,31 +4641,31 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
         <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>821.9680821844935</v>
+        <v>932.4978103100997</v>
       </c>
       <c r="M6" t="n">
-        <v>1456.147065963532</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N6" t="n">
-        <v>1843.432194560477</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O6" t="n">
-        <v>2175.502629736639</v>
+        <v>2015.115393042426</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>812.8918298888575</v>
+        <v>449.9329810105319</v>
       </c>
       <c r="C7" t="n">
-        <v>812.8918298888575</v>
+        <v>305.0150268210029</v>
       </c>
       <c r="D7" t="n">
-        <v>662.7751904765217</v>
+        <v>305.0150268210029</v>
       </c>
       <c r="E7" t="n">
-        <v>514.8620968941286</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962183</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.86271359008</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1533.86271359008</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1533.86271359008</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V7" t="n">
-        <v>1279.178225384193</v>
+        <v>859.5709967387889</v>
       </c>
       <c r="W7" t="n">
-        <v>1215.332873862627</v>
+        <v>859.5709967387889</v>
       </c>
       <c r="X7" t="n">
-        <v>1215.332873862627</v>
+        <v>631.5814458407716</v>
       </c>
       <c r="Y7" t="n">
-        <v>994.5402947190972</v>
+        <v>631.5814458407716</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1582.86133602681</v>
+        <v>921.7704558796261</v>
       </c>
       <c r="C8" t="n">
-        <v>1213.898819086399</v>
+        <v>921.7704558796261</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>921.7704558796261</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881544</v>
+        <v>921.7704558796261</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923659</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653545</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>1808.800296392465</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1582.86133602681</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4990,22 +4990,22 @@
         <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1795.080298689242</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U10" t="n">
-        <v>1795.080298689242</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V10" t="n">
-        <v>1540.395810483355</v>
+        <v>1582.779602640134</v>
       </c>
       <c r="W10" t="n">
-        <v>1540.395810483355</v>
+        <v>1293.362432603173</v>
       </c>
       <c r="X10" t="n">
-        <v>1312.406259585337</v>
+        <v>1065.372881705156</v>
       </c>
       <c r="Y10" t="n">
-        <v>1091.613680441807</v>
+        <v>945.3964936596652</v>
       </c>
     </row>
     <row r="11">
@@ -5021,67 +5021,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>806.8386896933887</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9025067654818</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.518075718013</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="U13" t="n">
-        <v>1726.686454602137</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V13" t="n">
-        <v>1726.686454602137</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W13" t="n">
-        <v>1437.269284565176</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X13" t="n">
-        <v>1209.279733667159</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y13" t="n">
-        <v>988.4871545236284</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="14">
@@ -5258,25 +5258,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075805</v>
@@ -5285,16 +5285,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>315.9123021921482</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>913.2907898187001</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373307</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>800.6374272687975</v>
+        <v>991.7436897307817</v>
       </c>
       <c r="C16" t="n">
-        <v>631.7012443408906</v>
+        <v>822.8075068028749</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>672.6908673905391</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>524.777773808146</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>377.8878263102356</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>210.6917270251155</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510507</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854705</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648818</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>1021.430006412328</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="Y16" t="n">
-        <v>800.6374272687975</v>
+        <v>1173.392154561021</v>
       </c>
     </row>
     <row r="17">
@@ -5504,31 +5504,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>175.8744207939072</v>
       </c>
       <c r="K18" t="n">
-        <v>352.5519571452614</v>
+        <v>175.8744207939072</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>931.4710609784063</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504994</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2325.6047790701</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2106.003314093041</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>2106.003314093041</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1851.318825887154</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1561.901655850193</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1333.912104952176</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>1113.119525808646</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5741,31 +5741,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>175.8744207939072</v>
       </c>
       <c r="L21" t="n">
-        <v>924.8344286397182</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M21" t="n">
-        <v>1522.21291626627</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N21" t="n">
-        <v>1522.21291626627</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
-        <v>2074.122646505557</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2497.745796000625</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D22" t="n">
-        <v>513.8536007400712</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>445.6984928076085</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>131.6124460245781</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5984,25 +5984,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2283.159972732779</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>632.7243904253733</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C25" t="n">
-        <v>632.7243904253733</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253733</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y25" t="n">
-        <v>814.372855255613</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="26">
@@ -6215,31 +6215,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.777212765616</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>782.8410298377091</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253734</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1361.415228493873</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>1133.425677595856</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="Y28" t="n">
-        <v>1133.425677595856</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="29">
@@ -6461,22 +6461,22 @@
         <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>634.5603720565524</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683104</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>869.6905094135296</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C31" t="n">
-        <v>700.7543264856228</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D31" t="n">
-        <v>550.637687073287</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>553.1252546331712</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>406.2353071352608</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>239.0392078501407</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>97.32737669233879</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.2863919474</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741513</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704552</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806535</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.4026036630049</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>929.7309773356194</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2445.743822797996</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2445.743822797996</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487568</v>
+        <v>2226.142357820936</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1937.067131165134</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1682.382642959247</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588918</v>
+        <v>1392.965472922287</v>
       </c>
       <c r="X34" t="n">
-        <v>1150.523556479149</v>
+        <v>1164.975922024269</v>
       </c>
       <c r="Y34" t="n">
-        <v>929.7309773356194</v>
+        <v>944.1833428807391</v>
       </c>
     </row>
     <row r="35">
@@ -6932,28 +6932,28 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852256</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>94.56320294380259</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>244.2098454714573</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>244.2098454714573</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>733.4550657171305</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>733.4550657171305</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>583.3384263047948</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>583.3384263047948</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>436.4484788068844</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>269.2523795217643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>127.5405483639624</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>915.1035305473703</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,19 +7160,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7254,25 +7254,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1231.938859683105</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>768.5380889459582</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C40" t="n">
-        <v>599.6019060180513</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D40" t="n">
-        <v>449.4852666057155</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E40" t="n">
-        <v>301.5721730233224</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F40" t="n">
-        <v>301.5721730233224</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G40" t="n">
-        <v>301.5721730233224</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>159.8603418655205</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2418.441549808666</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2235.58671546357</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2015.985250486511</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1726.910023830708</v>
       </c>
       <c r="V40" t="n">
-        <v>1688.385853854706</v>
+        <v>1472.225535624822</v>
       </c>
       <c r="W40" t="n">
-        <v>1398.968683817745</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X40" t="n">
-        <v>1170.979132919728</v>
+        <v>954.8188146898436</v>
       </c>
       <c r="Y40" t="n">
-        <v>950.1865537761979</v>
+        <v>734.0262355463135</v>
       </c>
     </row>
     <row r="41">
@@ -7397,25 +7397,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7494,22 +7494,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1802.364528928006</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>950.7540666811333</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C43" t="n">
-        <v>781.8178837532264</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D43" t="n">
-        <v>631.7012443408906</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1712.457658285589</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854706</v>
+        <v>1457.773170079702</v>
       </c>
       <c r="W43" t="n">
-        <v>1398.968683817745</v>
+        <v>1168.356000042741</v>
       </c>
       <c r="X43" t="n">
-        <v>1170.979132919728</v>
+        <v>940.366449144724</v>
       </c>
       <c r="Y43" t="n">
-        <v>1132.402531511373</v>
+        <v>719.5738700011939</v>
       </c>
     </row>
     <row r="44">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>917.5010142286973</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>748.5648313007904</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>598.4481918884546</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
         <v>317.6151975578602</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1099.149479058937</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>1099.149479058937</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,19 +8067,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>224.3355197601777</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>265.0304328515147</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8298,10 +8298,10 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>231.2582814363237</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>186.5911984019046</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>-1.246340467744327e-12</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>320.0693170376271</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>19.91603255181077</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>180.6811543289153</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>64.01114445024369</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,16 +23464,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>45.99097492814153</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>37.91759473995617</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>24.58839950885167</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>104.0840080815026</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>127.2568112467069</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>117.6820817884491</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>102.8768876993837</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>67.5400076700282</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>51.30683507832691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>214.9597225531944</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>24.58839950885167</v>
       </c>
     </row>
     <row r="29">
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>104.8770068749568</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>77.79022981064229</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>65.16817853567946</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>14.48117232036651</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>47.87918985573486</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>15.8825942891924</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>38.13892827624271</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25783,19 +25783,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,10 +25840,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>23.83108638657416</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>180.3938179578232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26023,19 +26023,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>72.11969353038617</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>13.83034628221191</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>967421.4057186114</v>
+        <v>967421.4057186116</v>
       </c>
     </row>
     <row r="3">
@@ -26317,19 +26317,19 @@
         <v>389994.8406855348</v>
       </c>
       <c r="D2" t="n">
-        <v>389994.8406855345</v>
+        <v>389994.8406855344</v>
       </c>
       <c r="E2" t="n">
+        <v>383394.634852753</v>
+      </c>
+      <c r="F2" t="n">
         <v>383394.6348527529</v>
       </c>
-      <c r="F2" t="n">
-        <v>383394.6348527531</v>
-      </c>
       <c r="G2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="H2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="I2" t="n">
         <v>383394.634852753</v>
@@ -26338,19 +26338,19 @@
         <v>383394.634852753</v>
       </c>
       <c r="K2" t="n">
-        <v>383394.6348527529</v>
+        <v>383394.634852753</v>
       </c>
       <c r="L2" t="n">
-        <v>383394.6348527529</v>
+        <v>383394.634852753</v>
       </c>
       <c r="M2" t="n">
         <v>383394.634852753</v>
       </c>
       <c r="N2" t="n">
-        <v>383394.6348527529</v>
+        <v>383394.634852753</v>
       </c>
       <c r="O2" t="n">
-        <v>383394.6348527529</v>
+        <v>383394.6348527528</v>
       </c>
       <c r="P2" t="n">
         <v>383394.634852753</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099824</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819071</v>
+        <v>48293.97000819077</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92967.25326431797</v>
+        <v>92967.25326431807</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.1369769831</v>
+        <v>135522.1369769832</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309554</v>
+        <v>87914.29116309556</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744282</v>
@@ -26439,19 +26439,19 @@
         <v>8727.256391744284</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744222</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744289</v>
+        <v>8727.256391744295</v>
       </c>
       <c r="O4" t="n">
         <v>8727.256391744282</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-946076.7124169623</v>
+        <v>-946263.1058055011</v>
       </c>
       <c r="C6" t="n">
-        <v>161534.931268707</v>
+        <v>161534.9312687069</v>
       </c>
       <c r="D6" t="n">
-        <v>1519.468520707713</v>
+        <v>1519.468520707538</v>
       </c>
       <c r="E6" t="n">
-        <v>-51867.61317025353</v>
+        <v>-51902.35109568929</v>
       </c>
       <c r="F6" t="n">
-        <v>273544.8486371016</v>
+        <v>273510.1107116658</v>
       </c>
       <c r="G6" t="n">
-        <v>273544.8486371016</v>
+        <v>273510.1107116658</v>
       </c>
       <c r="H6" t="n">
-        <v>273544.8486371016</v>
+        <v>273510.1107116658</v>
       </c>
       <c r="I6" t="n">
-        <v>273544.8486371014</v>
+        <v>273510.1107116659</v>
       </c>
       <c r="J6" t="n">
-        <v>105939.6708271192</v>
+        <v>105904.9329016834</v>
       </c>
       <c r="K6" t="n">
-        <v>273544.8486371013</v>
+        <v>273510.1107116658</v>
       </c>
       <c r="L6" t="n">
-        <v>225250.8786289108</v>
+        <v>225216.140703475</v>
       </c>
       <c r="M6" t="n">
-        <v>188489.8207015897</v>
+        <v>188455.082776154</v>
       </c>
       <c r="N6" t="n">
-        <v>273544.8486371016</v>
+        <v>273510.1107116659</v>
       </c>
       <c r="O6" t="n">
-        <v>273544.8486371015</v>
+        <v>273510.1107116656</v>
       </c>
       <c r="P6" t="n">
-        <v>273544.8486371015</v>
+        <v>273510.1107116659</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -26978,13 +26978,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>190.816623302254</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>104.0271586385297</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>45.79388012065973</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>13.72645506417527</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>64.47352451041274</v>
       </c>
       <c r="X5" t="n">
-        <v>155.9384550985488</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>23.77804645099414</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,10 +27822,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>223.3161003302413</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>307.2767095024431</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>162.5583678940554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28026,7 +28026,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28062,7 +28062,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>177.588995040958</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>99.80802918705912</v>
       </c>
     </row>
     <row r="11">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -31042,43 +31042,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31133,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31142,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31233,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31844,7 +31844,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31853,16 +31853,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>616.375287159485</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,16 +32072,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>361.1081696176612</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>209.7242506524599</v>
       </c>
       <c r="K18" t="n">
-        <v>397.4049812900382</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,13 +32327,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,13 +32546,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>220.7280629601522</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>158.8462560123214</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>748.8168776781358</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,25 +33029,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>194.5189324111248</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>191.332301678856</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,31 +33725,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>100.2764607028593</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33758,16 +33758,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33974,28 +33974,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>640.2652944187043</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34214,7 +34214,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>297.7596336167232</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>615.5326193530516</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>514.7099619750469</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34866,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34875,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>528.9386420741739</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35030,13 +35030,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>436.2707275254369</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35492,7 +35492,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,16 +35501,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>473.7790427150405</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>222.5537898377871</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>82.88662398579324</v>
       </c>
       <c r="K18" t="n">
-        <v>259.5635423156792</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,13 +35975,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>82.88662398579324</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>18.86448192629984</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>617.4751655948025</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>55.96455263125056</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462666</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>59.99058959552271</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,25 +37379,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.7540807028593151</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37406,7 +37406,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37555,7 +37555,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37622,28 +37622,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>498.1312604966861</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37862,7 +37862,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>163.785226202393</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
